--- a/Classifier_Stats.xlsx
+++ b/Classifier_Stats.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="0" windowWidth="25060" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="18400" yWindow="0" windowWidth="25060" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Classifier Stats" sheetId="1" r:id="rId1"/>
+    <sheet name="Classifier stats - Iteration 2" sheetId="2" r:id="rId1"/>
+    <sheet name="Classifier Stats" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
   <si>
     <t>Training set size</t>
   </si>
@@ -91,6 +92,15 @@
   </si>
   <si>
     <t>Low test resource</t>
+  </si>
+  <si>
+    <t>Gaussian NB</t>
+  </si>
+  <si>
+    <t>Comparison to DT Classifier</t>
+  </si>
+  <si>
+    <t>Stats from Testing</t>
   </si>
 </sst>
 </file>
@@ -145,8 +155,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -157,13 +173,19 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -493,13 +515,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>200</v>
+      </c>
+      <c r="L6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>7.9000000000000001E-4</v>
+      </c>
+      <c r="C7">
+        <v>1.4599999999999999E-3</v>
+      </c>
+      <c r="D7">
+        <v>1.6100000000000001E-3</v>
+      </c>
+      <c r="F7">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="G7">
+        <v>5.8E-4</v>
+      </c>
+      <c r="H7">
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="J7">
+        <v>3.9500000000000004E-3</v>
+      </c>
+      <c r="K7">
+        <v>3.2499999999999999E-3</v>
+      </c>
+      <c r="L7">
+        <v>5.6100000000000004E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="C8">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="D8">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="F8">
+        <v>3.8999999999999999E-4</v>
+      </c>
+      <c r="G8">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="H8">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="J8">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="K8">
+        <v>2.2300000000000002E-3</v>
+      </c>
+      <c r="L8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.8407</v>
+      </c>
+      <c r="G9">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.8</v>
+      </c>
+      <c r="J9">
+        <v>0.88880000000000003</v>
+      </c>
+      <c r="K9">
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="L9">
+        <v>0.89729999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="C10">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="D10">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="F10">
+        <v>3.5E-4</v>
+      </c>
+      <c r="G10">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="H10">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="J10">
+        <v>7.2999999999999996E-4</v>
+      </c>
+      <c r="K10">
+        <v>1.1100000000000001E-3</v>
+      </c>
+      <c r="L10">
+        <v>1.41E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0.82440000000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="D11">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="F11">
+        <v>0.79710000000000003</v>
+      </c>
+      <c r="G11">
+        <v>0.66069999999999995</v>
+      </c>
+      <c r="H11">
+        <v>0.752</v>
+      </c>
+      <c r="J11">
+        <v>0.84350000000000003</v>
+      </c>
+      <c r="K11">
+        <v>0.83779999999999999</v>
+      </c>
+      <c r="L11">
+        <v>0.86109999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f>F7/$B7</f>
+        <v>0.98734177215189867</v>
+      </c>
+      <c r="G15">
+        <f>G7/$C7</f>
+        <v>0.39726027397260277</v>
+      </c>
+      <c r="H15">
+        <f>H7/$D7</f>
+        <v>0.45962732919254656</v>
+      </c>
+      <c r="J15">
+        <f>J7/$B7</f>
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <f>K7/$C7</f>
+        <v>2.2260273972602738</v>
+      </c>
+      <c r="L15">
+        <f>L7/$D7</f>
+        <v>3.4844720496894412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <f>F8/$B8</f>
+        <v>2.2941176470588234</v>
+      </c>
+      <c r="G16">
+        <f>G8/$C8</f>
+        <v>1.5454545454545454</v>
+      </c>
+      <c r="H16">
+        <f>H8/$D8</f>
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="J16">
+        <f>J8/$B8</f>
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <f>K8/$C8</f>
+        <v>10.136363636363637</v>
+      </c>
+      <c r="L16">
+        <f>L8/$D8</f>
+        <v>18.18181818181818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <f>F10/$B10</f>
+        <v>2.0588235294117645</v>
+      </c>
+      <c r="G17">
+        <f>G10/$C10</f>
+        <v>2.6153846153846159</v>
+      </c>
+      <c r="H17">
+        <f>H10/$D10</f>
+        <v>1.7857142857142858</v>
+      </c>
+      <c r="J17">
+        <f>J10/$B10</f>
+        <v>4.2941176470588234</v>
+      </c>
+      <c r="K17">
+        <f>K10/$C10</f>
+        <v>8.5384615384615401</v>
+      </c>
+      <c r="L17">
+        <f>L10/$D10</f>
+        <v>10.071428571428573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <f>F11/$B11</f>
+        <v>0.9668850072780204</v>
+      </c>
+      <c r="G18">
+        <f>G11/$C11</f>
+        <v>0.72469013930020842</v>
+      </c>
+      <c r="H18">
+        <f>H11/$D11</f>
+        <v>0.92496924969249694</v>
+      </c>
+      <c r="J18">
+        <f>J11/$B11</f>
+        <v>1.0231683648714216</v>
+      </c>
+      <c r="K18">
+        <f>K11/$C11</f>
+        <v>0.91894263463858727</v>
+      </c>
+      <c r="L18">
+        <f>L11/$D11</f>
+        <v>1.0591635916359163</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J7 F7 B7">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFCCFFCC"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8 F8 B8">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFCCFFCC"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10 F10 B10">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFCCFFCC"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11 F11 B11">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFCCFFCC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:L17 J19:L19">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFCCFFCC"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:H18">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFCCFFCC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:L18">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFCCFFCC"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:L18">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFCCFFCC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:H18">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFCCFFCC"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A7:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1133,7 +1603,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10 B10 J10 N10">
+  <conditionalFormatting sqref="B10 F10 J10 N10">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1173,7 +1643,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27 F27 J27 N27">
+  <conditionalFormatting sqref="F27 B27 J27 N27">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1183,7 +1653,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29 F29 J29 N29">
+  <conditionalFormatting sqref="F29 B29 J29 N29">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
